--- a/prep/pressures/LBSP_Urban_runoff_01.xlsx
+++ b/prep/pressures/LBSP_Urban_runoff_01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="675" windowWidth="23715" windowHeight="10515"/>
+    <workbookView xWindow="180" yWindow="1530" windowWidth="23715" windowHeight="10515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,7 +374,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,7 +385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -395,8 +395,12 @@
       <c r="C2">
         <v>4.3632999999999998E-2</v>
       </c>
+      <c r="D2">
+        <f>C2*B2</f>
+        <v>47467468.039999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -407,7 +411,7 @@
         <v>1.6625000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -418,7 +422,7 @@
         <v>0.15662899999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
